--- a/src/test/resources/testdata/EasyQuoteL10.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL10.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transcription" sheetId="1" r:id="rId1"/>
+    <sheet name="Translation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="174">
   <si>
     <t>Source</t>
   </si>
@@ -118,19 +119,435 @@
     <t>1</t>
   </si>
   <si>
-    <t>1.75</t>
-  </si>
-  <si>
     <t>Quality Check</t>
   </si>
   <si>
     <t>0.25</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>AdditionalServices</t>
+  </si>
+  <si>
+    <t>Affidavits</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Chinese (Simplified)</t>
+  </si>
+  <si>
+    <t>Bosnian</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Dari</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Farsi</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Luganda</t>
+  </si>
+  <si>
+    <t>Kirundi</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Fula</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Tetum</t>
+  </si>
+  <si>
+    <t>Lutshootseed</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>252.0</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>77.5</t>
+  </si>
+  <si>
+    <t>577.5</t>
+  </si>
+  <si>
+    <t>28.88</t>
+  </si>
+  <si>
+    <t>606.38</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>30.75</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>32.29</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>540.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>567.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>48.83</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>16.75</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>69.04</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>76.65</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>17.25</t>
+  </si>
+  <si>
+    <t>161.25</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>169.31</t>
+  </si>
+  <si>
+    <t>1072.0</t>
+  </si>
+  <si>
+    <t>31.75</t>
+  </si>
+  <si>
+    <t>1103.75</t>
+  </si>
+  <si>
+    <t>55.19</t>
+  </si>
+  <si>
+    <t>1158.94</t>
+  </si>
+  <si>
+    <t>1040.0</t>
+  </si>
+  <si>
+    <t>31.25</t>
+  </si>
+  <si>
+    <t>1071.25</t>
+  </si>
+  <si>
+    <t>53.56</t>
+  </si>
+  <si>
+    <t>1124.81</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>892.5</t>
+  </si>
+  <si>
+    <t>44.63</t>
+  </si>
+  <si>
+    <t>937.13</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 44.62
+Actual : 44.63</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 937.12
+Actual : 937.13</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>9600.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>9765.0</t>
+  </si>
+  <si>
+    <t>488.25</t>
+  </si>
+  <si>
+    <t>10253.25</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>330.75</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>365.0</t>
+  </si>
+  <si>
+    <t>18.25</t>
+  </si>
+  <si>
+    <t>383.25</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>665.0</t>
+  </si>
+  <si>
+    <t>33.25</t>
+  </si>
+  <si>
+    <t>698.25</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>1265.0</t>
+  </si>
+  <si>
+    <t>63.25</t>
+  </si>
+  <si>
+    <t>1328.25</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>202.0</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>212.1</t>
+  </si>
+  <si>
+    <t>516.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>591.0</t>
+  </si>
+  <si>
+    <t>29.55</t>
+  </si>
+  <si>
+    <t>620.55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -180,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +626,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,20 +992,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.5703125" style="9" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="9" collapsed="1"/>
-    <col min="8" max="8" width="11.5703125" style="9"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="5" style="9" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" style="9" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" style="9" width="11.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30">
@@ -605,10 +1028,10 @@
         <v>27</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -660,34 +1083,60 @@
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8">
-        <v>180</v>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -699,34 +1148,60 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
-        <v>250</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2</v>
+      <c r="D3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="28.5" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -738,34 +1213,60 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
+      <c r="D4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="28.5" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -777,34 +1278,60 @@
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5</v>
+      <c r="D5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="28.5" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -816,34 +1343,60 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
+      <c r="D6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="28.5" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -855,34 +1408,60 @@
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="28.5" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -894,34 +1473,60 @@
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10">
-        <v>7</v>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -933,34 +1538,60 @@
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>7</v>
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -972,34 +1603,60 @@
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10">
-        <v>16</v>
+      <c r="D10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="28.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -1011,34 +1668,60 @@
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
-        <v>67</v>
-      </c>
-      <c r="E11" s="10">
-        <v>16</v>
+      <c r="D11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="28.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -1050,34 +1733,60 @@
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8">
-        <v>65</v>
-      </c>
-      <c r="E12" s="10">
-        <v>16</v>
+      <c r="D12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -1089,34 +1798,60 @@
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8">
-        <v>54</v>
-      </c>
-      <c r="E13" s="10">
-        <v>16</v>
+      <c r="D13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="28.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -1128,34 +1863,60 @@
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10">
-        <v>16</v>
+      <c r="D14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="28.5" customHeight="1">
       <c r="A15" s="6" t="s">
@@ -1167,34 +1928,60 @@
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
-        <v>600</v>
-      </c>
-      <c r="E15" s="10">
-        <v>16</v>
+      <c r="D15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1205,4 +1992,1530 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="9" width="11.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>